--- a/data/trans_bre/IP04F-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP04F-Habitat-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/IP04F-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP04F-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,8 +514,6 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,14 +529,12 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -562,22 +551,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -588,13 +567,11 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>36,71%</t>
         </is>
       </c>
     </row>
@@ -642,39 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 4,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 7,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,95; 82,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-33,64; 208,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-15,63%</t>
         </is>
       </c>
     </row>
@@ -722,39 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 5,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,49; 2,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,56; 97,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-52,53; 44,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-21,96%</t>
         </is>
       </c>
     </row>
@@ -802,39 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 4,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; 2,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,61; 55,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-60,38; 49,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>61,58%</t>
         </is>
       </c>
     </row>
@@ -882,39 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 9,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 10,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 129,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-1,04; 170,98</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>14,02%</t>
         </is>
       </c>
     </row>
@@ -962,133 +849,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 3,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; 52,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-14,68; 54,23</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
